--- a/medicine/Enfance/Ann_Rocard/Ann_Rocard.xlsx
+++ b/medicine/Enfance/Ann_Rocard/Ann_Rocard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ann Rocard est un écrivain français, auteur de littérature adulte et jeunesse, née le 23 février 1954[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ann Rocard est un écrivain français, auteur de littérature adulte et jeunesse, née le 23 février 1954.
 Elle est la sœur de l'actrice Pascale Rocard et la petite-cousine de l'homme politique Michel Rocard.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ann Rocard a effectué une double maîtrise de psychologie à Nanterre (psycho-génétique et psycho-pathologie de l’enfant) puis un DEA de Sciences Sociales à Caen.
 D'abord aide-éducatrice puis psychologue pour enfants dans une école pour enfants et adolescents handicapés mentaux avec lesquels elle écrivit ce qui restera sans doute sa plus grande œuvre Voyage Calculturel, pièce déjantée et loufoque mettant en scène une troupe de Dinard passant leurs vacances à Akounikoto, une ville en pleine expansion. Elle a travaillé comme psychologue dans un centre pour enfants malentendants.
